--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2126846.194968362</v>
+        <v>2124594.115257154</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.4918089738218</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>190.2651610286893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.2598945289029</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>212.2140719095439</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>50.93328119989157</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177676</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>274.7944255145784</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>58.5503926013046</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503955</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>177.6965697803337</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>141.8888082957386</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2008,7 +2008,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>53.30076123484837</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833208</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>1.799772605714818</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205764035</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>83.06560892428168</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.6472505928856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1329.547110979148</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2630.721789066532</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2438.534757724422</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2048.39542574861</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
@@ -4413,7 +4413,7 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>492.3762059419881</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1303.529887077737</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>934.5673701373257</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>1690.129727141859</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,43 +4699,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>730.582392337873</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>730.582392337873</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>580.4657529255372</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>432.5526593431441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>285.6627118452337</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>117.9598752199527</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1361.01298720966</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1361.01298720966</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1133.023436311643</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>912.2308571681127</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>3009.337405520489</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>759.299533604006</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3633506760991</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>440.2467112637634</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>440.2467112637634</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>293.356763765853</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>125.6539271405719</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783663</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577776</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1161.740577577776</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1161.740577577776</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.9479984342457</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5021,22 +5021,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5048,10 +5048,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5294,34 +5294,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>659.9487421954783</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>491.0125592675714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>491.0125592675714</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1290.379337067265</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1062.389786169248</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>841.597207025718</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,10 +5531,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>229.7425191625314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5744,13 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5890,13 +5890,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
         <v>175.9033664000583</v>
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128888</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841094</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6215,25 +6215,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,22 +6534,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400699</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.917417812163</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038328</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797729</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138397</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703096</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7020,16 +7020,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,10 +7658,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>445.698492807609</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096986</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518967</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
   </sheetData>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-3.84283301942238e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.329716221310917</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>144.6341900408524</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,7 +23896,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>86.99395161137551</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489153</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>146.8157004124975</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>65.54986409393068</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572567992</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840744.0319125275</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125275</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>840744.0319125274</v>
+        <v>840744.0319125273</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840744.0319125273</v>
+        <v>840744.0319125274</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752545</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="G2" t="n">
         <v>585181.2847752543</v>
@@ -26332,28 +26332,28 @@
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="J2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="K2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="J2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752543</v>
-      </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752547</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073548</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
+        <v>14216.75207685509</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="H4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
+        <v>14216.75207685504</v>
+      </c>
+      <c r="K4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="L4" t="n">
+        <v>14216.75207685496</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="K4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="L4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685504</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934827.1899855866</v>
+        <v>-934827.1899855867</v>
       </c>
       <c r="C6" t="n">
         <v>393917.5557420058</v>
       </c>
       <c r="D6" t="n">
-        <v>393917.5557420058</v>
+        <v>393917.5557420061</v>
       </c>
       <c r="E6" t="n">
-        <v>144429.5410671376</v>
+        <v>144394.8031417011</v>
       </c>
       <c r="F6" t="n">
-        <v>469842.0028744918</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="G6" t="n">
-        <v>469842.0028744924</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="H6" t="n">
-        <v>469842.0028744923</v>
+        <v>469807.2649490567</v>
       </c>
       <c r="I6" t="n">
-        <v>469842.0028744923</v>
+        <v>469807.2649490563</v>
       </c>
       <c r="J6" t="n">
-        <v>252310.8004772147</v>
+        <v>252276.062551779</v>
       </c>
       <c r="K6" t="n">
-        <v>469842.0028744921</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="L6" t="n">
-        <v>469842.0028744924</v>
+        <v>469807.2649490564</v>
       </c>
       <c r="M6" t="n">
-        <v>384786.9749389805</v>
+        <v>384752.2370135448</v>
       </c>
       <c r="N6" t="n">
-        <v>469842.0028744925</v>
+        <v>469807.2649490566</v>
       </c>
       <c r="O6" t="n">
-        <v>469842.0028744924</v>
+        <v>469807.2649490563</v>
       </c>
       <c r="P6" t="n">
-        <v>469842.0028744923</v>
+        <v>469807.2649490562</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.952705003891343e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,25 +26960,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483757</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483752</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.1912326468612</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>179.4659396497797</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>60.3247588231919</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>174.0238667465097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>93.82173371442921</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029153</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>111.4435131414752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.20462231301619</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29575,7 +29575,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -29694,7 +29694,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-6.952705003891343e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31285,40 +31285,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31437,43 +31437,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.461131202643</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716333</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.3747716989726</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33181,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663286</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.97169333569</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>172.8142548092788</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597632</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,10 +35583,10 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998974</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394599</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.65947400496659</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190984</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558158</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096334</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>27.13475084531481</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
